--- a/Template/Example/Организации.xlsx
+++ b/Template/Example/Организации.xlsx
@@ -5,24 +5,24 @@
   <x:workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\import\rx-util-importdata\Template\Example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Belov_AlS\source\repos\rx-util-importdata-net-core\Template\Example\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="13020"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Контрагенты" sheetId="1" r:id="rId1"/>
   </x:sheets>
   <x:definedNames>
-    <x:definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Контрагенты!$A$1:$V$6</x:definedName>
+    <x:definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Контрагенты!$A$1:$W$6</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="152511"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="65">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="62">
   <x:si>
     <x:t>Наименование</x:t>
   </x:si>
@@ -78,9 +78,6 @@
     <x:t>Банк</x:t>
   </x:si>
   <x:si>
-    <x:t>Digital River GmbH</x:t>
-  </x:si>
-  <x:si>
     <x:t>Да</x:t>
   </x:si>
   <x:si>
@@ -90,12 +87,6 @@
     <x:t>Vogelsander str.78, 50823, Cologne, Germany (Кельн, Германия)</x:t>
   </x:si>
   <x:si>
-    <x:t>Авалон ООО</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ООО «АВАЛОН»</x:t>
-  </x:si>
-  <x:si>
     <x:t>Нет</x:t>
   </x:si>
   <x:si>
@@ -114,12 +105,6 @@
     <x:t>Игорь Паламарчук &lt;i_palamarchuk@list.ru&gt;</x:t>
   </x:si>
   <x:si>
-    <x:t>Политекс ООО</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ООО "Политекс"</x:t>
-  </x:si>
-  <x:si>
     <x:t>Ижевск</x:t>
   </x:si>
   <x:si>
@@ -132,24 +117,12 @@
     <x:t>(3412) 52-63-04, 52-56-94,52-47-97</x:t>
   </x:si>
   <x:si>
-    <x:t>Точка Росы ООО</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ООО «Точка Росы»</x:t>
-  </x:si>
-  <x:si>
     <x:t>Москва</x:t>
   </x:si>
   <x:si>
     <x:t>119121, Г.Москва,, 1-й Труженников пер., 14, 1</x:t>
   </x:si>
   <x:si>
-    <x:t>ТРАНСФИНГРУП, УК</x:t>
-  </x:si>
-  <x:si>
-    <x:t>АО «УК «ТРАНСФИНГРУП»</x:t>
-  </x:si>
-  <x:si>
     <x:t>129090, РФ, город Москва, улица Щепкина, дом 33</x:t>
   </x:si>
   <x:si>
@@ -162,12 +135,6 @@
     <x:t>www.tfgroup.ru</x:t>
   </x:si>
   <x:si>
-    <x:t>Ярко ООО</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ООО "Ярко"</x:t>
-  </x:si>
-  <x:si>
     <x:t>426039 УР г. Ижевск, ул. Воткинское шоссе 58-58</x:t>
   </x:si>
   <x:si>
@@ -177,36 +144,6 @@
     <x:t>Регион</x:t>
   </x:si>
   <x:si>
-    <x:t>Статус</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Загружено частично</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Город "Кельн" не найден</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Загружено</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18.12.2018 15:02:22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18.12.2018 15:02:26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18.12.2018 15:02:29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18.12.2018 15:02:32</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18.12.2018 15:02:36</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18.12.2018 15:02:40</x:t>
-  </x:si>
-  <x:si>
     <x:t>БАНК_Кельн</x:t>
   </x:si>
   <x:si>
@@ -225,34 +162,78 @@
     <x:t>Подробности</x:t>
   </x:si>
   <x:si>
+    <x:t>Ответственный</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Авалон ООО1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Политекс ООО1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Точка Росы ООО1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ТРАНСФИНГРУП, УК1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ярко ООО1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Digital River GmbH1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ООО «АВАЛОН»1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ООО "Политекс"1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ООО «Точка Росы»1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>АО «УК «ТРАНСФИНГРУП»1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ООО "Ярко"1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ардо Наталья Алексеевна</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Не загружен</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16.06.2021</x:t>
+  </x:si>
+  <x:si>
+    <x:t>One or more errors occurred. (No property or association found for [NumberResponsible].)</x:t>
+  </x:si>
+  <x:si>
     <x:t>Загружен частично</x:t>
   </x:si>
   <x:si>
-    <x:t>01.06.2021</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Не найден Регион "141407, Московская область, г. Химки, ул. Лавочкина, д. 13, корпус 2". Наименование организации: "Авалон ООО". 
-Не найден Банк "БАНКХимки". Наименование организации: "Авалон ООО". </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Не найден Регион "г. Ижевск, ул. Автозаводская, 7". Наименование организации: "Политекс ООО". 
-Не найден Банк "БАНКИжевск". Наименование организации: "Политекс ООО". </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Не найден Регион "119121, Г.Москва,, 1-й Труженников пер., 14, 1". Наименование организации: "Точка Росы ООО". 
-Не найден Банк "БАНКМосква". Наименование организации: "Точка Росы ООО". </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Не найден Регион "129090, РФ, город Москва, улица Щепкина, дом 33". Наименование организации: "ТРАНСФИНГРУП, УК". 
-Не найден Банк "БАНКМосква". Наименование организации: "ТРАНСФИНГРУП, УК". </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Не найден Регион "426039 УР г. Ижевск, ул. Воткинское шоссе 58-58". Наименование организации: "Ярко ООО". 
-Не найден Банк "БАНКИжевск". Наименование организации: "Ярко ООО". </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Не найден Регион "Vogelsander str.78, 50823, Cologne, Germany (Кельн, Германия)". Наименование организации: "Digital River GmbH". 
-Не найден Банк "БАНК_Кельн". Наименование организации: "Digital River GmbH". </x:t>
+    <x:t>Не найден Населенный пункт "Химки". Наименование организации: "Авалон ООО1". </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Не найден Населенный пункт "Ижевск". Наименование организации: "Политекс ООО1". 
+Не найден Банк "БАНКИжевск". Наименование организации: "Политекс ООО1". </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Не найден Населенный пункт "Москва". Наименование организации: "Точка Росы ООО1". 
+Не найден Банк "БАНКМосква". Наименование организации: "Точка Росы ООО1". </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Не найден Населенный пункт "Москва". Наименование организации: "ТРАНСФИНГРУП, УК1". 
+Не найден Банк "БАНКМосква". Наименование организации: "ТРАНСФИНГРУП, УК1". </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Не найден Населенный пункт "Ижевск". Наименование организации: "Ярко ООО1". 
+Не найден Банк "БАНКИжевск". Наименование организации: "Ярко ООО1". </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Не найден Населенный пункт "Кельн". Наименование организации: "Digital River GmbH1". 
+Не найден Банк "БАНК_Кельн". Наименование организации: "Digital River GmbH1". </x:t>
   </x:si>
 </x:sst>
 </file>
@@ -315,7 +296,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -353,11 +334,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA0A0A0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFA0A0A0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA0A0A0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -376,7 +398,16 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -659,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
-  <x:dimension ref="A1:V7"/>
+  <x:dimension ref="A1:W7"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="A2" sqref="A2:XFD7"/>
+    <x:sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <x:selection activeCell="T1" sqref="T1"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,13 +715,14 @@
     <x:col min="15" max="15" width="36.42578125" bestFit="1" customWidth="1"/>
     <x:col min="16" max="16" width="13.140625" bestFit="1" customWidth="1"/>
     <x:col min="17" max="18" width="17.140625" bestFit="1" customWidth="1"/>
-    <x:col min="19" max="19" width="9.85546875" bestFit="1" customWidth="1"/>
-    <x:col min="20" max="20" width="17.7109375" bestFit="1" customWidth="1"/>
-    <x:col min="21" max="21" width="15.28515625" bestFit="1" customWidth="1"/>
-    <x:col min="22" max="22" width="20.85546875" bestFit="1" customWidth="1"/>
+    <x:col min="19" max="19" width="11.42578125" bestFit="1" customWidth="1"/>
+    <x:col min="20" max="20" width="19.85546875" bestFit="1" customWidth="1"/>
+    <x:col min="21" max="21" width="17.7109375" bestFit="1" customWidth="1"/>
+    <x:col min="22" max="22" width="15.28515625" bestFit="1" customWidth="1"/>
+    <x:col min="23" max="23" width="20.85546875" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:22" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <x:row r="1" spans="1:23" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <x:c r="A1" s="4" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -722,7 +754,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="K1" s="4" t="s">
-        <x:v>50</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="L1" s="4" t="s">
         <x:v>10</x:v>
@@ -748,26 +780,29 @@
       <x:c r="S1" s="4" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="T1" s="7" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="U1" s="2" t="s">
-        <x:v>49</x:v>
+      <x:c r="T1" s="8" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="U1" s="7" t="s">
+        <x:v>44</x:v>
       </x:c>
       <x:c r="V1" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="W1" s="2" t="s">
+        <x:v>45</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:22" s="1" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+    <x:row r="2" spans="1:23" s="1" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
       <x:c r="A2" s="5" t="s">
-        <x:v>22</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B2" s="5" t="s">
-        <x:v>23</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C2" s="5"/>
       <x:c r="D2" s="5" t="s">
-        <x:v>24</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E2" s="6"/>
       <x:c r="F2" s="5"/>
@@ -775,47 +810,50 @@
       <x:c r="H2" s="6"/>
       <x:c r="I2" s="5"/>
       <x:c r="J2" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="K2" s="5"/>
       <x:c r="L2" s="5" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M2" s="5" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="N2" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="O2" s="5" t="s">
         <x:v>26</x:v>
-      </x:c>
-      <x:c r="M2" s="5" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="N2" s="5" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="O2" s="5" t="s">
-        <x:v>29</x:v>
       </x:c>
       <x:c r="P2" s="5"/>
       <x:c r="Q2" s="5"/>
       <x:c r="R2" s="5"/>
-      <x:c r="S2" s="5" t="s">
+      <x:c r="S2" s="9" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="T2" s="11" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="U2" s="10" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="T2" s="8" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="U2" s="2" t="s">
-        <x:v>68</x:v>
-      </x:c>
       <x:c r="V2" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="W2" s="2" t="s">
+        <x:v>63</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:22" s="1" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+    <x:row r="3" spans="1:23" s="1" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
       <x:c r="A3" s="5" t="s">
-        <x:v>30</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B3" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C3" s="5"/>
       <x:c r="D3" s="5" t="s">
-        <x:v>24</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E3" s="6"/>
       <x:c r="F3" s="5"/>
@@ -823,45 +861,48 @@
       <x:c r="H3" s="6"/>
       <x:c r="I3" s="5"/>
       <x:c r="J3" s="5" t="s">
-        <x:v>32</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="K3" s="5"/>
       <x:c r="L3" s="5" t="s">
-        <x:v>33</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="M3" s="5" t="s">
-        <x:v>34</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="N3" s="5" t="s">
-        <x:v>35</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O3" s="5"/>
       <x:c r="P3" s="5"/>
       <x:c r="Q3" s="5"/>
       <x:c r="R3" s="5"/>
-      <x:c r="S3" s="5" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="T3" s="8" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="U3" s="2" t="s">
-        <x:v>68</x:v>
+      <x:c r="S3" s="9" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="T3" s="11" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="U3" s="10" t="s">
+        <x:v>62</x:v>
       </x:c>
       <x:c r="V3" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="W3" s="2" t="s">
+        <x:v>64</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:22" s="1" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+    <x:row r="4" spans="1:23" s="1" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
       <x:c r="A4" s="5" t="s">
-        <x:v>36</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B4" s="5" t="s">
-        <x:v>37</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C4" s="5"/>
       <x:c r="D4" s="5" t="s">
-        <x:v>24</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E4" s="6"/>
       <x:c r="F4" s="5"/>
@@ -869,43 +910,46 @@
       <x:c r="H4" s="6"/>
       <x:c r="I4" s="5"/>
       <x:c r="J4" s="5" t="s">
-        <x:v>38</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="K4" s="5"/>
       <x:c r="L4" s="5" t="s">
-        <x:v>39</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="M4" s="5" t="s">
-        <x:v>39</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="N4" s="5"/>
       <x:c r="O4" s="5"/>
       <x:c r="P4" s="5"/>
       <x:c r="Q4" s="5"/>
       <x:c r="R4" s="5"/>
-      <x:c r="S4" s="5" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="T4" s="8" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="U4" s="2" t="s">
-        <x:v>68</x:v>
+      <x:c r="S4" s="9" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="T4" s="11" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="U4" s="10" t="s">
+        <x:v>62</x:v>
       </x:c>
       <x:c r="V4" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="W4" s="2" t="s">
+        <x:v>65</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:22" s="1" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+    <x:row r="5" spans="1:23" s="1" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
       <x:c r="A5" s="5" t="s">
-        <x:v>40</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B5" s="5" t="s">
-        <x:v>41</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C5" s="5"/>
       <x:c r="D5" s="5" t="s">
-        <x:v>24</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E5" s="6"/>
       <x:c r="F5" s="5"/>
@@ -913,49 +957,52 @@
       <x:c r="H5" s="6"/>
       <x:c r="I5" s="5"/>
       <x:c r="J5" s="5" t="s">
-        <x:v>38</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="K5" s="5"/>
       <x:c r="L5" s="5" t="s">
-        <x:v>42</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="M5" s="5" t="s">
-        <x:v>42</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="N5" s="5" t="s">
-        <x:v>43</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="O5" s="5" t="s">
-        <x:v>44</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="P5" s="5" t="s">
-        <x:v>45</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="Q5" s="5"/>
       <x:c r="R5" s="5"/>
-      <x:c r="S5" s="5" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="T5" s="8" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="U5" s="2" t="s">
-        <x:v>68</x:v>
+      <x:c r="S5" s="9" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="T5" s="11" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="U5" s="10" t="s">
+        <x:v>62</x:v>
       </x:c>
       <x:c r="V5" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="W5" s="2" t="s">
+        <x:v>66</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:22" s="1" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+    <x:row r="6" spans="1:23" s="1" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
       <x:c r="A6" s="5" t="s">
-        <x:v>46</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B6" s="5" t="s">
-        <x:v>47</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C6" s="5"/>
       <x:c r="D6" s="5" t="s">
-        <x:v>24</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E6" s="6"/>
       <x:c r="F6" s="5"/>
@@ -963,43 +1010,46 @@
       <x:c r="H6" s="6"/>
       <x:c r="I6" s="5"/>
       <x:c r="J6" s="5" t="s">
-        <x:v>32</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="K6" s="5"/>
       <x:c r="L6" s="5" t="s">
-        <x:v>48</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="M6" s="5" t="s">
-        <x:v>48</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="N6" s="5"/>
       <x:c r="O6" s="5"/>
       <x:c r="P6" s="5"/>
       <x:c r="Q6" s="5"/>
       <x:c r="R6" s="5"/>
-      <x:c r="S6" s="5" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="T6" s="8" t="s">
+      <x:c r="S6" s="9" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="T6" s="11" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="U6" s="10" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="V6" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="W6" s="2" t="s">
         <x:v>67</x:v>
       </x:c>
-      <x:c r="U6" s="2" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="V6" s="2" t="s">
-        <x:v>73</x:v>
-      </x:c>
     </x:row>
-    <x:row r="7" spans="1:22" s="1" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+    <x:row r="7" spans="1:23" s="1" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
       <x:c r="A7" s="5" t="s">
-        <x:v>18</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B7" s="5" t="s">
-        <x:v>18</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C7" s="5"/>
       <x:c r="D7" s="5" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E7" s="6"/>
       <x:c r="F7" s="5"/>
@@ -1007,35 +1057,38 @@
       <x:c r="H7" s="6"/>
       <x:c r="I7" s="5"/>
       <x:c r="J7" s="5" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="K7" s="5"/>
       <x:c r="L7" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="M7" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="N7" s="5"/>
       <x:c r="O7" s="5"/>
       <x:c r="P7" s="5"/>
       <x:c r="Q7" s="5"/>
       <x:c r="R7" s="5"/>
-      <x:c r="S7" s="5" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="T7" s="8" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="U7" s="2" t="s">
+      <x:c r="S7" s="9" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="T7" s="11" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="U7" s="10" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="V7" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="W7" s="3" t="s">
         <x:v>68</x:v>
-      </x:c>
-      <x:c r="V7" s="3" t="s">
-        <x:v>74</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:autoFilter ref="A1:V7"/>
+  <x:autoFilter ref="A1:W7"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </x:worksheet>

--- a/Template/Example/Организации.xlsx
+++ b/Template/Example/Организации.xlsx
@@ -15,14 +15,14 @@
     <x:sheet name="Контрагенты" sheetId="1" r:id="rId1"/>
   </x:sheets>
   <x:definedNames>
-    <x:definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Контрагенты!$A$1:$W$6</x:definedName>
+    <x:definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Контрагенты!$A$1:$X$6</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="152511"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="62">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="68">
   <x:si>
     <x:t>Наименование</x:t>
   </x:si>
@@ -201,16 +201,36 @@
     <x:t>Ардо Наталья Алексеевна</x:t>
   </x:si>
   <x:si>
-    <x:t>Не загружен</x:t>
-  </x:si>
-  <x:si>
     <x:t>16.06.2021</x:t>
   </x:si>
   <x:si>
-    <x:t>One or more errors occurred. (No property or association found for [NumberResponsible].)</x:t>
-  </x:si>
-  <x:si>
     <x:t>Загружен частично</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Не найден Населенный пункт "Химки". Наименование организации: "Авалон ООО1".</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Не найден Населенный пункт "Ижевск". Наименование организации: "Политекс ООО1". 
+Не найден Банк "БАНКИжевск". Наименование организации: "Политекс ООО1".</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Не найден Населенный пункт "Москва". Наименование организации: "Точка Росы ООО1". 
+Не найден Банк "БАНКМосква". Наименование организации: "Точка Росы ООО1".</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Не найден Населенный пункт "Москва". Наименование организации: "ТРАНСФИНГРУП, УК1". 
+Не найден Банк "БАНКМосква". Наименование организации: "ТРАНСФИНГРУП, УК1".</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Не найден Населенный пункт "Ижевск". Наименование организации: "Ярко ООО1". 
+Не найден Банк "БАНКИжевск". Наименование организации: "Ярко ООО1".</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Не найден Населенный пункт "Кельн". Наименование организации: "Digital River GmbH1". 
+Не найден Банк "БАНК_Кельн". Наименование организации: "Digital River GmbH1".</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Код</x:t>
   </x:si>
   <x:si>
     <x:t>Не найден Населенный пункт "Химки". Наименование организации: "Авалон ООО1". </x:t>
@@ -690,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
-  <x:dimension ref="A1:W7"/>
+  <x:dimension ref="A1:X7"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <x:selection activeCell="T1" sqref="T1"/>
+      <x:selection activeCell="U15" sqref="U15"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,13 +736,14 @@
     <x:col min="16" max="16" width="13.140625" bestFit="1" customWidth="1"/>
     <x:col min="17" max="18" width="17.140625" bestFit="1" customWidth="1"/>
     <x:col min="19" max="19" width="11.42578125" bestFit="1" customWidth="1"/>
-    <x:col min="20" max="20" width="19.85546875" bestFit="1" customWidth="1"/>
-    <x:col min="21" max="21" width="17.7109375" bestFit="1" customWidth="1"/>
-    <x:col min="22" max="22" width="15.28515625" bestFit="1" customWidth="1"/>
-    <x:col min="23" max="23" width="20.85546875" bestFit="1" customWidth="1"/>
+    <x:col min="20" max="20" width="21.85546875" bestFit="1" customWidth="1"/>
+    <x:col min="21" max="21" width="19.85546875" customWidth="1"/>
+    <x:col min="22" max="22" width="17.7109375" bestFit="1" customWidth="1"/>
+    <x:col min="23" max="23" width="15.28515625" bestFit="1" customWidth="1"/>
+    <x:col min="24" max="24" width="20.85546875" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:23" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <x:row r="1" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <x:c r="A1" s="4" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -783,17 +804,20 @@
       <x:c r="T1" s="8" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="U1" s="7" t="s">
+      <x:c r="U1" s="8" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="V1" s="7" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="V1" s="2" t="s">
+      <x:c r="W1" s="2" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="W1" s="2" t="s">
+      <x:c r="X1" s="2" t="s">
         <x:v>45</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:23" s="1" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+    <x:row r="2" spans="1:24" s="1" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
       <x:c r="A2" s="5" t="s">
         <x:v>47</x:v>
       </x:c>
@@ -834,17 +858,20 @@
       <x:c r="T2" s="11" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="U2" s="10" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="V2" s="2" t="s">
+      <x:c r="U2" s="11">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="V2" s="10" t="s">
         <x:v>60</x:v>
       </x:c>
       <x:c r="W2" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="X2" s="2" t="s">
+        <x:v>68</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:23" s="1" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+    <x:row r="3" spans="1:24" s="1" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
       <x:c r="A3" s="5" t="s">
         <x:v>48</x:v>
       </x:c>
@@ -883,17 +910,20 @@
       <x:c r="T3" s="11" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="U3" s="10" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="V3" s="2" t="s">
+      <x:c r="U3" s="11">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="V3" s="10" t="s">
         <x:v>60</x:v>
       </x:c>
       <x:c r="W3" s="2" t="s">
-        <x:v>64</x:v>
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="X3" s="2" t="s">
+        <x:v>69</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:23" s="1" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+    <x:row r="4" spans="1:24" s="1" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
       <x:c r="A4" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
@@ -930,17 +960,20 @@
       <x:c r="T4" s="11" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="U4" s="10" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="V4" s="2" t="s">
+      <x:c r="U4" s="11">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="V4" s="10" t="s">
         <x:v>60</x:v>
       </x:c>
       <x:c r="W4" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="X4" s="2" t="s">
+        <x:v>70</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:23" s="1" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+    <x:row r="5" spans="1:24" s="1" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
       <x:c r="A5" s="5" t="s">
         <x:v>50</x:v>
       </x:c>
@@ -983,17 +1016,20 @@
       <x:c r="T5" s="11" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="U5" s="10" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="V5" s="2" t="s">
+      <x:c r="U5" s="11">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="V5" s="10" t="s">
         <x:v>60</x:v>
       </x:c>
       <x:c r="W5" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="X5" s="2" t="s">
+        <x:v>71</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:23" s="1" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+    <x:row r="6" spans="1:24" s="1" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
       <x:c r="A6" s="5" t="s">
         <x:v>51</x:v>
       </x:c>
@@ -1030,17 +1066,20 @@
       <x:c r="T6" s="11" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="U6" s="10" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="V6" s="2" t="s">
+      <x:c r="U6" s="11">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="V6" s="10" t="s">
         <x:v>60</x:v>
       </x:c>
       <x:c r="W6" s="2" t="s">
-        <x:v>67</x:v>
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="X6" s="2" t="s">
+        <x:v>72</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:23" s="1" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+    <x:row r="7" spans="1:24" s="1" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
       <x:c r="A7" s="5" t="s">
         <x:v>52</x:v>
       </x:c>
@@ -1077,18 +1116,21 @@
       <x:c r="T7" s="11" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="U7" s="10" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="V7" s="2" t="s">
+      <x:c r="U7" s="11">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="V7" s="10" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="W7" s="3" t="s">
-        <x:v>68</x:v>
+      <x:c r="W7" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="X7" s="3" t="s">
+        <x:v>73</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:autoFilter ref="A1:W7"/>
+  <x:autoFilter ref="A1:X7"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </x:worksheet>
